--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78164.52057761834</v>
+        <v>-80588.12712495995</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>110.9581335610167</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>377.216940304131</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>160.512587365577</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.87955485821216</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.8838386384632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>93.60737577598897</v>
+        <v>75.83680089291389</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86.89555047376892</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>81.46084344268529</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>283.9746808062648</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182137</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>34.45424496096847</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>202.3298832272395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>43.73846614325492</v>
+        <v>55.52079624060239</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>78.34975387299224</v>
+        <v>43.87236189622237</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>15.09910835322215</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>217.0250037474722</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>5.623597659130801</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158706</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>1344.229893317464</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619113</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1198280123626</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1198280123626</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>787.1198280123626</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2847.203478888592</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2847.203478888592</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2494.434823618478</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2120.969065357398</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1730.829733381586</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X4" t="n">
-        <v>403.7945880458111</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.019610438899</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766375</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>472.1048757766375</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9882363643018</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201677</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766375</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>764.341133147311</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577034</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>447.6717530255577</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>278.7355700976508</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>128.6189306853138</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687996</v>
@@ -5227,22 +5227,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332894</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.954076332894</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W13" t="n">
-        <v>1220.954076332894</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.58045691144</v>
+        <v>668.4643321690878</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>447.6717530255577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>707.6725264685197</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2402.78281474869</v>
+        <v>2390.881471216016</v>
       </c>
       <c r="T16" t="n">
-        <v>2183.181349771631</v>
+        <v>2171.280006238957</v>
       </c>
       <c r="U16" t="n">
-        <v>1894.106123115829</v>
+        <v>1882.204779583155</v>
       </c>
       <c r="V16" t="n">
-        <v>1639.421634909942</v>
+        <v>1627.520291377268</v>
       </c>
       <c r="W16" t="n">
-        <v>1350.004464872981</v>
+        <v>1338.103121340307</v>
       </c>
       <c r="X16" t="n">
-        <v>1122.014913974964</v>
+        <v>1110.11357044229</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>889.3209912987594</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>803.2707707770319</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>653.1541313646961</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>505.241037782303</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>358.3510902843926</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>191.1549909992726</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,13 +7084,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>254.3147582099908</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>195.6642971912153</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33.70478534932244</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>111.9797176856007</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,22 +23467,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23.37977216179769</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631857005</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>137.2878198583897</v>
+        <v>125.5054897610422</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.3599015160449</v>
+        <v>181.8372934928148</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>125.1956044930017</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>35.1126395763558</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.0860577299063</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5257599066253</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1040035.487831573</v>
+        <v>1040035.487831572</v>
       </c>
     </row>
     <row r="3">
@@ -26320,13 +26320,13 @@
         <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>313293.7425942655</v>
+        <v>313293.7425942654</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26341,7 +26341,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760023</v>
@@ -26353,7 +26353,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540527</v>
+        <v>64690.18151540509</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
@@ -26439,16 +26439,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189199</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>16046.58397189199</v>
       </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1193210.204743185</v>
+        <v>-1193336.817523713</v>
       </c>
       <c r="C6" t="n">
         <v>126886.0232802674</v>
@@ -26528,40 +26528,40 @@
         <v>126886.0232802675</v>
       </c>
       <c r="E6" t="n">
-        <v>-114002.63724568</v>
+        <v>-114097.1557791271</v>
       </c>
       <c r="F6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="G6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547678</v>
       </c>
       <c r="H6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="I6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="J6" t="n">
-        <v>-11841.67631707412</v>
+        <v>-11876.41424250999</v>
       </c>
       <c r="K6" t="n">
-        <v>205689.5260802032</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="L6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="M6" t="n">
-        <v>120634.4981446915</v>
+        <v>120599.7602192557</v>
       </c>
       <c r="N6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="O6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="P6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547677</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>186.2660728810465</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.48258459332499</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.830100530825</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.70081471363159</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.6305628800646</v>
+        <v>310.4011377631397</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>59.53841217280025</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9470448471886</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28065,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259852</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28327,10 +28327,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597634</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096304</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
